--- a/faculty app/schedule.xlsx
+++ b/faculty app/schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\faculty app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\automation\Attendance manager\faculty app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36193691-7965-4059-BB04-1F6D74B4BF83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E08BA46-AB44-41E9-9810-BFD3787F7764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3320" yWindow="580" windowWidth="18280" windowHeight="13100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10710" yWindow="0" windowWidth="10980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Histology_schedule" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="104">
   <si>
     <t>Year</t>
   </si>
@@ -340,6 +340,12 @@
   </si>
   <si>
     <t>Session</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
   </si>
 </sst>
 </file>
@@ -735,10 +741,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G143"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -803,19 +810,19 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -826,19 +833,19 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -849,19 +856,19 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -872,19 +879,19 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -895,19 +902,19 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -918,19 +925,19 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -941,19 +948,19 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -964,16 +971,16 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>22</v>
@@ -987,16 +994,16 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>25</v>
@@ -1013,13 +1020,13 @@
         <v>26</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>16</v>
@@ -1033,19 +1040,19 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D13">
         <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -1059,16 +1066,16 @@
         <v>26</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -1082,16 +1089,16 @@
         <v>26</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -1105,13 +1112,13 @@
         <v>26</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>16</v>
@@ -1125,16 +1132,16 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>19</v>
@@ -1148,19 +1155,19 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -1171,16 +1178,16 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="G19" s="9" t="s">
         <v>25</v>
@@ -1194,16 +1201,16 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>19</v>
@@ -1217,19 +1224,19 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -1240,16 +1247,16 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
         <v>17</v>
       </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22" t="s">
-        <v>34</v>
-      </c>
       <c r="F22" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>16</v>
@@ -1263,19 +1270,19 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E23" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -1286,19 +1293,19 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D24">
         <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -1309,19 +1316,19 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D25">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -1332,19 +1339,19 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D26">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -1355,19 +1362,19 @@
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D27">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -1378,16 +1385,16 @@
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D28">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>16</v>
@@ -1401,16 +1408,16 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D29">
         <v>4</v>
       </c>
       <c r="E29" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="G29" s="9" t="s">
         <v>19</v>
@@ -1427,16 +1434,16 @@
         <v>23</v>
       </c>
       <c r="D30">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E30" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -1447,19 +1454,19 @@
         <v>3</v>
       </c>
       <c r="C31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31" t="s">
         <v>20</v>
       </c>
-      <c r="D31">
-        <v>2</v>
-      </c>
-      <c r="E31" t="s">
-        <v>36</v>
-      </c>
       <c r="F31" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -1470,19 +1477,19 @@
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -1493,19 +1500,19 @@
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D33">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E33" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -1516,16 +1523,16 @@
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D34">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E34" t="s">
         <v>23</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="G34" s="9" t="s">
         <v>22</v>
@@ -1539,16 +1546,16 @@
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
         <v>34</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G35" s="9" t="s">
         <v>25</v>
@@ -1562,16 +1569,16 @@
         <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D36">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="G36" s="9" t="s">
         <v>16</v>
@@ -1585,19 +1592,19 @@
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -1608,19 +1615,19 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D38">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E38" t="s">
         <v>34</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -1631,19 +1638,19 @@
         <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -1654,19 +1661,19 @@
         <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D40">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -1677,19 +1684,19 @@
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D41">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -1700,16 +1707,16 @@
         <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D42">
         <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G42" s="9" t="s">
         <v>16</v>
@@ -1723,16 +1730,16 @@
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D43">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E43" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G43" s="9" t="s">
         <v>19</v>
@@ -1746,16 +1753,16 @@
         <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D44">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="G44" s="9" t="s">
         <v>22</v>
@@ -1769,19 +1776,19 @@
         <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D45">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E45" t="s">
         <v>34</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -1792,19 +1799,19 @@
         <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D46">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E46" t="s">
         <v>23</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
@@ -1815,19 +1822,19 @@
         <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E47" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -1838,16 +1845,16 @@
         <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E48" t="s">
         <v>34</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G48" s="9" t="s">
         <v>22</v>
@@ -1861,22 +1868,2191 @@
         <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D49">
+        <v>6</v>
+      </c>
+      <c r="E49" t="s">
+        <v>34</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="52" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" t="s">
+        <v>100</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="7">
+        <v>45418</v>
+      </c>
+      <c r="G50" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" t="s">
+        <v>34</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>34</v>
+      </c>
+      <c r="F51" s="7">
+        <v>45419</v>
+      </c>
+      <c r="G51" s="9">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" t="s">
+        <v>34</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52" t="s">
+        <v>34</v>
+      </c>
+      <c r="F52" s="7">
+        <v>45420</v>
+      </c>
+      <c r="G52" s="9">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" t="s">
+        <v>34</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53" t="s">
+        <v>23</v>
+      </c>
+      <c r="F53" s="7">
+        <v>45421</v>
+      </c>
+      <c r="G53" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54" t="s">
+        <v>34</v>
+      </c>
+      <c r="D54">
+        <v>4</v>
+      </c>
+      <c r="E54" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" s="7">
+        <v>45422</v>
+      </c>
+      <c r="G54" s="9">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" t="s">
+        <v>102</v>
+      </c>
+      <c r="C55" t="s">
+        <v>34</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55" t="s">
+        <v>33</v>
+      </c>
+      <c r="F55" s="7">
+        <v>45423</v>
+      </c>
+      <c r="G55" s="9">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" t="s">
+        <v>102</v>
+      </c>
+      <c r="C56" t="s">
+        <v>34</v>
+      </c>
+      <c r="D56">
+        <v>6</v>
+      </c>
+      <c r="E56" t="s">
+        <v>23</v>
+      </c>
+      <c r="F56" s="7">
+        <v>45424</v>
+      </c>
+      <c r="G56" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" t="s">
+        <v>102</v>
+      </c>
+      <c r="C57" t="s">
+        <v>26</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>26</v>
+      </c>
+      <c r="F57" s="7">
+        <v>45418</v>
+      </c>
+      <c r="G57" s="9">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" t="s">
+        <v>102</v>
+      </c>
+      <c r="C58" t="s">
+        <v>26</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="7">
+        <v>45419</v>
+      </c>
+      <c r="G58" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" t="s">
+        <v>102</v>
+      </c>
+      <c r="C59" t="s">
+        <v>26</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+      <c r="E59" t="s">
+        <v>20</v>
+      </c>
+      <c r="F59" s="7">
+        <v>45420</v>
+      </c>
+      <c r="G59" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" t="s">
+        <v>102</v>
+      </c>
+      <c r="C60" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60">
+        <v>4</v>
+      </c>
+      <c r="E60" t="s">
+        <v>34</v>
+      </c>
+      <c r="F60" s="7">
+        <v>45421</v>
+      </c>
+      <c r="G60" s="9">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" t="s">
+        <v>102</v>
+      </c>
+      <c r="C61" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61">
+        <v>5</v>
+      </c>
+      <c r="E61" t="s">
+        <v>23</v>
+      </c>
+      <c r="F61" s="7">
+        <v>45422</v>
+      </c>
+      <c r="G61" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" t="s">
+        <v>102</v>
+      </c>
+      <c r="C62" t="s">
+        <v>26</v>
+      </c>
+      <c r="D62">
+        <v>6</v>
+      </c>
+      <c r="E62" t="s">
+        <v>30</v>
+      </c>
+      <c r="F62" s="7">
+        <v>45423</v>
+      </c>
+      <c r="G62" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" t="s">
+        <v>102</v>
+      </c>
+      <c r="C63" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63">
+        <v>7</v>
+      </c>
+      <c r="E63" t="s">
+        <v>23</v>
+      </c>
+      <c r="F63" s="7">
+        <v>45424</v>
+      </c>
+      <c r="G63" s="9">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" t="s">
+        <v>102</v>
+      </c>
+      <c r="C64" t="s">
+        <v>26</v>
+      </c>
+      <c r="D64">
+        <v>8</v>
+      </c>
+      <c r="E64" t="s">
+        <v>30</v>
+      </c>
+      <c r="F64" s="7">
+        <v>45425</v>
+      </c>
+      <c r="G64" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65" t="s">
+        <v>102</v>
+      </c>
+      <c r="C65" t="s">
+        <v>26</v>
+      </c>
+      <c r="D65">
+        <v>9</v>
+      </c>
+      <c r="E65" t="s">
+        <v>37</v>
+      </c>
+      <c r="F65" s="7">
+        <v>45426</v>
+      </c>
+      <c r="G65" s="9">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66" t="s">
+        <v>102</v>
+      </c>
+      <c r="C66" t="s">
+        <v>26</v>
+      </c>
+      <c r="D66">
+        <v>10</v>
+      </c>
+      <c r="E66" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="7">
+        <v>45427</v>
+      </c>
+      <c r="G66" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67" t="s">
+        <v>102</v>
+      </c>
+      <c r="C67" t="s">
+        <v>26</v>
+      </c>
+      <c r="D67">
         <v>11</v>
       </c>
-      <c r="E49" t="s">
-        <v>34</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G49" s="9" t="s">
+      <c r="E67" t="s">
+        <v>37</v>
+      </c>
+      <c r="F67" s="7">
+        <v>45428</v>
+      </c>
+      <c r="G67" s="9">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" t="s">
+        <v>102</v>
+      </c>
+      <c r="C68" t="s">
+        <v>20</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
+        <v>17</v>
+      </c>
+      <c r="F68" s="7">
+        <v>45429</v>
+      </c>
+      <c r="G68" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" t="s">
+        <v>102</v>
+      </c>
+      <c r="C69" t="s">
+        <v>20</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69" t="s">
+        <v>36</v>
+      </c>
+      <c r="F69" s="7">
+        <v>45430</v>
+      </c>
+      <c r="G69" s="9">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70" t="s">
+        <v>102</v>
+      </c>
+      <c r="C70" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
+      <c r="E70" t="s">
+        <v>26</v>
+      </c>
+      <c r="F70" s="7">
+        <v>45431</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71" t="s">
+        <v>102</v>
+      </c>
+      <c r="C71" t="s">
+        <v>20</v>
+      </c>
+      <c r="D71">
+        <v>4</v>
+      </c>
+      <c r="E71" t="s">
+        <v>30</v>
+      </c>
+      <c r="F71" s="7">
+        <v>45433</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" t="s">
+        <v>102</v>
+      </c>
+      <c r="C72" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72">
+        <v>5</v>
+      </c>
+      <c r="E72" t="s">
+        <v>33</v>
+      </c>
+      <c r="F72" s="7">
+        <v>45434</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73" t="s">
+        <v>102</v>
+      </c>
+      <c r="C73" t="s">
+        <v>23</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73" t="s">
+        <v>17</v>
+      </c>
+      <c r="F73" s="7">
+        <v>45425</v>
+      </c>
+      <c r="G73" s="9" t="s">
         <v>25</v>
       </c>
     </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74" t="s">
+        <v>102</v>
+      </c>
+      <c r="C74" t="s">
+        <v>23</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74" t="s">
+        <v>17</v>
+      </c>
+      <c r="F74" s="7">
+        <v>45426</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75" t="s">
+        <v>102</v>
+      </c>
+      <c r="C75" t="s">
+        <v>23</v>
+      </c>
+      <c r="D75">
+        <v>3</v>
+      </c>
+      <c r="E75" t="s">
+        <v>30</v>
+      </c>
+      <c r="F75" s="7">
+        <v>45427</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76" t="s">
+        <v>102</v>
+      </c>
+      <c r="C76" t="s">
+        <v>23</v>
+      </c>
+      <c r="D76">
+        <v>4</v>
+      </c>
+      <c r="E76" t="s">
+        <v>23</v>
+      </c>
+      <c r="F76" s="7">
+        <v>45428</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>2</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77" t="s">
+        <v>23</v>
+      </c>
+      <c r="D77">
+        <v>5</v>
+      </c>
+      <c r="E77" t="s">
+        <v>20</v>
+      </c>
+      <c r="F77" s="7">
+        <v>45429</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B78" t="s">
+        <v>102</v>
+      </c>
+      <c r="C78" t="s">
+        <v>23</v>
+      </c>
+      <c r="D78">
+        <v>6</v>
+      </c>
+      <c r="E78" t="s">
+        <v>20</v>
+      </c>
+      <c r="F78" s="7">
+        <v>45430</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>2</v>
+      </c>
+      <c r="B79" t="s">
+        <v>102</v>
+      </c>
+      <c r="C79" t="s">
+        <v>23</v>
+      </c>
+      <c r="D79">
+        <v>7</v>
+      </c>
+      <c r="E79" t="s">
+        <v>23</v>
+      </c>
+      <c r="F79" s="7">
+        <v>45431</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>2</v>
+      </c>
+      <c r="B80" t="s">
+        <v>102</v>
+      </c>
+      <c r="C80" t="s">
+        <v>23</v>
+      </c>
+      <c r="D80">
+        <v>8</v>
+      </c>
+      <c r="E80" t="s">
+        <v>26</v>
+      </c>
+      <c r="F80" s="7">
+        <v>45432</v>
+      </c>
+      <c r="G80" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>2</v>
+      </c>
+      <c r="B81" t="s">
+        <v>102</v>
+      </c>
+      <c r="C81" t="s">
+        <v>23</v>
+      </c>
+      <c r="D81">
+        <v>9</v>
+      </c>
+      <c r="E81" t="s">
+        <v>34</v>
+      </c>
+      <c r="F81" s="7">
+        <v>45433</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>2</v>
+      </c>
+      <c r="B82" t="s">
+        <v>102</v>
+      </c>
+      <c r="C82" t="s">
+        <v>23</v>
+      </c>
+      <c r="D82">
+        <v>10</v>
+      </c>
+      <c r="E82" t="s">
+        <v>23</v>
+      </c>
+      <c r="F82" s="7">
+        <v>45434</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>2</v>
+      </c>
+      <c r="B83" t="s">
+        <v>102</v>
+      </c>
+      <c r="C83" t="s">
+        <v>23</v>
+      </c>
+      <c r="D83">
+        <v>11</v>
+      </c>
+      <c r="E83" t="s">
+        <v>20</v>
+      </c>
+      <c r="F83" s="7">
+        <v>45435</v>
+      </c>
+      <c r="G83" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>2</v>
+      </c>
+      <c r="B84" t="s">
+        <v>102</v>
+      </c>
+      <c r="C84" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84" t="s">
+        <v>34</v>
+      </c>
+      <c r="F84" s="7">
+        <v>45436</v>
+      </c>
+      <c r="G84" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>2</v>
+      </c>
+      <c r="B85" t="s">
+        <v>102</v>
+      </c>
+      <c r="C85" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+      <c r="E85" t="s">
+        <v>20</v>
+      </c>
+      <c r="F85" s="7">
+        <v>45437</v>
+      </c>
+      <c r="G85" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>2</v>
+      </c>
+      <c r="B86" t="s">
+        <v>102</v>
+      </c>
+      <c r="C86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86">
+        <v>3</v>
+      </c>
+      <c r="E86" t="s">
+        <v>34</v>
+      </c>
+      <c r="F86" s="7">
+        <v>45438</v>
+      </c>
+      <c r="G86" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>2</v>
+      </c>
+      <c r="B87" t="s">
+        <v>102</v>
+      </c>
+      <c r="C87" t="s">
+        <v>30</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87" t="s">
+        <v>34</v>
+      </c>
+      <c r="F87" s="7">
+        <v>45435</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>2</v>
+      </c>
+      <c r="B88" t="s">
+        <v>102</v>
+      </c>
+      <c r="C88" t="s">
+        <v>30</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+      <c r="E88" t="s">
+        <v>30</v>
+      </c>
+      <c r="F88" s="7">
+        <v>45436</v>
+      </c>
+      <c r="G88" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>2</v>
+      </c>
+      <c r="B89" t="s">
+        <v>102</v>
+      </c>
+      <c r="C89" t="s">
+        <v>30</v>
+      </c>
+      <c r="D89">
+        <v>3</v>
+      </c>
+      <c r="E89" t="s">
+        <v>33</v>
+      </c>
+      <c r="F89" s="7">
+        <v>45437</v>
+      </c>
+      <c r="G89" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>2</v>
+      </c>
+      <c r="B90" t="s">
+        <v>102</v>
+      </c>
+      <c r="C90" t="s">
+        <v>30</v>
+      </c>
+      <c r="D90">
+        <v>4</v>
+      </c>
+      <c r="E90" t="s">
+        <v>26</v>
+      </c>
+      <c r="F90" s="7">
+        <v>45438</v>
+      </c>
+      <c r="G90" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>2</v>
+      </c>
+      <c r="B91" t="s">
+        <v>102</v>
+      </c>
+      <c r="C91" t="s">
+        <v>17</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91" t="s">
+        <v>34</v>
+      </c>
+      <c r="F91" s="7">
+        <v>45439</v>
+      </c>
+      <c r="G91" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>2</v>
+      </c>
+      <c r="B92" t="s">
+        <v>102</v>
+      </c>
+      <c r="C92" t="s">
+        <v>17</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+      <c r="E92" t="s">
+        <v>23</v>
+      </c>
+      <c r="F92" s="7">
+        <v>45440</v>
+      </c>
+      <c r="G92" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>2</v>
+      </c>
+      <c r="B93" t="s">
+        <v>102</v>
+      </c>
+      <c r="C93" t="s">
+        <v>17</v>
+      </c>
+      <c r="D93">
+        <v>3</v>
+      </c>
+      <c r="E93" t="s">
+        <v>34</v>
+      </c>
+      <c r="F93" s="7">
+        <v>45441</v>
+      </c>
+      <c r="G93" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>2</v>
+      </c>
+      <c r="B94" t="s">
+        <v>102</v>
+      </c>
+      <c r="C94" t="s">
+        <v>17</v>
+      </c>
+      <c r="D94">
+        <v>4</v>
+      </c>
+      <c r="E94" t="s">
+        <v>23</v>
+      </c>
+      <c r="F94" s="7">
+        <v>45442</v>
+      </c>
+      <c r="G94" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>2</v>
+      </c>
+      <c r="B95" t="s">
+        <v>102</v>
+      </c>
+      <c r="C95" t="s">
+        <v>17</v>
+      </c>
+      <c r="D95">
+        <v>5</v>
+      </c>
+      <c r="E95" t="s">
+        <v>34</v>
+      </c>
+      <c r="F95" s="7">
+        <v>45443</v>
+      </c>
+      <c r="G95" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>2</v>
+      </c>
+      <c r="B96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C96" t="s">
+        <v>17</v>
+      </c>
+      <c r="D96">
+        <v>6</v>
+      </c>
+      <c r="E96" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" s="7">
+        <v>45444</v>
+      </c>
+      <c r="G96" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="52" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>2</v>
+      </c>
+      <c r="B97" t="s">
+        <v>103</v>
+      </c>
+      <c r="C97" t="s">
+        <v>100</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" s="7">
+        <v>45418</v>
+      </c>
+      <c r="G97" s="9">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>2</v>
+      </c>
+      <c r="B98" t="s">
+        <v>103</v>
+      </c>
+      <c r="C98" t="s">
+        <v>34</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98" t="s">
+        <v>34</v>
+      </c>
+      <c r="F98" s="7">
+        <v>45419</v>
+      </c>
+      <c r="G98" s="9">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>2</v>
+      </c>
+      <c r="B99" t="s">
+        <v>103</v>
+      </c>
+      <c r="C99" t="s">
+        <v>34</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+      <c r="E99" t="s">
+        <v>34</v>
+      </c>
+      <c r="F99" s="7">
+        <v>45420</v>
+      </c>
+      <c r="G99" s="9">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>2</v>
+      </c>
+      <c r="B100" t="s">
+        <v>103</v>
+      </c>
+      <c r="C100" t="s">
+        <v>34</v>
+      </c>
+      <c r="D100">
+        <v>3</v>
+      </c>
+      <c r="E100" t="s">
+        <v>23</v>
+      </c>
+      <c r="F100" s="7">
+        <v>45421</v>
+      </c>
+      <c r="G100" s="9">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>2</v>
+      </c>
+      <c r="B101" t="s">
+        <v>103</v>
+      </c>
+      <c r="C101" t="s">
+        <v>34</v>
+      </c>
+      <c r="D101">
+        <v>4</v>
+      </c>
+      <c r="E101" t="s">
+        <v>26</v>
+      </c>
+      <c r="F101" s="7">
+        <v>45422</v>
+      </c>
+      <c r="G101" s="9">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>2</v>
+      </c>
+      <c r="B102" t="s">
+        <v>103</v>
+      </c>
+      <c r="C102" t="s">
+        <v>34</v>
+      </c>
+      <c r="D102">
+        <v>5</v>
+      </c>
+      <c r="E102" t="s">
+        <v>33</v>
+      </c>
+      <c r="F102" s="7">
+        <v>45423</v>
+      </c>
+      <c r="G102" s="9">
+        <v>0.79166666666666663</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>2</v>
+      </c>
+      <c r="B103" t="s">
+        <v>103</v>
+      </c>
+      <c r="C103" t="s">
+        <v>34</v>
+      </c>
+      <c r="D103">
+        <v>6</v>
+      </c>
+      <c r="E103" t="s">
+        <v>23</v>
+      </c>
+      <c r="F103" s="7">
+        <v>45424</v>
+      </c>
+      <c r="G103" s="9">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>2</v>
+      </c>
+      <c r="B104" t="s">
+        <v>103</v>
+      </c>
+      <c r="C104" t="s">
+        <v>26</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104" t="s">
+        <v>26</v>
+      </c>
+      <c r="F104" s="7">
+        <v>45418</v>
+      </c>
+      <c r="G104" s="9">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>2</v>
+      </c>
+      <c r="B105" t="s">
+        <v>103</v>
+      </c>
+      <c r="C105" t="s">
+        <v>26</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
+      </c>
+      <c r="E105" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105" s="7">
+        <v>45419</v>
+      </c>
+      <c r="G105" s="9">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>2</v>
+      </c>
+      <c r="B106" t="s">
+        <v>103</v>
+      </c>
+      <c r="C106" t="s">
+        <v>26</v>
+      </c>
+      <c r="D106">
+        <v>3</v>
+      </c>
+      <c r="E106" t="s">
+        <v>20</v>
+      </c>
+      <c r="F106" s="7">
+        <v>45420</v>
+      </c>
+      <c r="G106" s="9">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>2</v>
+      </c>
+      <c r="B107" t="s">
+        <v>103</v>
+      </c>
+      <c r="C107" t="s">
+        <v>26</v>
+      </c>
+      <c r="D107">
+        <v>4</v>
+      </c>
+      <c r="E107" t="s">
+        <v>34</v>
+      </c>
+      <c r="F107" s="7">
+        <v>45421</v>
+      </c>
+      <c r="G107" s="9">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>2</v>
+      </c>
+      <c r="B108" t="s">
+        <v>103</v>
+      </c>
+      <c r="C108" t="s">
+        <v>26</v>
+      </c>
+      <c r="D108">
+        <v>5</v>
+      </c>
+      <c r="E108" t="s">
+        <v>23</v>
+      </c>
+      <c r="F108" s="7">
+        <v>45422</v>
+      </c>
+      <c r="G108" s="9">
+        <v>0.79166666666666663</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>2</v>
+      </c>
+      <c r="B109" t="s">
+        <v>103</v>
+      </c>
+      <c r="C109" t="s">
+        <v>26</v>
+      </c>
+      <c r="D109">
+        <v>6</v>
+      </c>
+      <c r="E109" t="s">
+        <v>30</v>
+      </c>
+      <c r="F109" s="7">
+        <v>45423</v>
+      </c>
+      <c r="G109" s="9">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>2</v>
+      </c>
+      <c r="B110" t="s">
+        <v>103</v>
+      </c>
+      <c r="C110" t="s">
+        <v>26</v>
+      </c>
+      <c r="D110">
+        <v>7</v>
+      </c>
+      <c r="E110" t="s">
+        <v>23</v>
+      </c>
+      <c r="F110" s="7">
+        <v>45424</v>
+      </c>
+      <c r="G110" s="9">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>2</v>
+      </c>
+      <c r="B111" t="s">
+        <v>103</v>
+      </c>
+      <c r="C111" t="s">
+        <v>26</v>
+      </c>
+      <c r="D111">
+        <v>8</v>
+      </c>
+      <c r="E111" t="s">
+        <v>30</v>
+      </c>
+      <c r="F111" s="7">
+        <v>45425</v>
+      </c>
+      <c r="G111" s="9">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>2</v>
+      </c>
+      <c r="B112" t="s">
+        <v>103</v>
+      </c>
+      <c r="C112" t="s">
+        <v>26</v>
+      </c>
+      <c r="D112">
+        <v>9</v>
+      </c>
+      <c r="E112" t="s">
+        <v>37</v>
+      </c>
+      <c r="F112" s="7">
+        <v>45426</v>
+      </c>
+      <c r="G112" s="9">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>2</v>
+      </c>
+      <c r="B113" t="s">
+        <v>103</v>
+      </c>
+      <c r="C113" t="s">
+        <v>26</v>
+      </c>
+      <c r="D113">
+        <v>10</v>
+      </c>
+      <c r="E113" t="s">
+        <v>14</v>
+      </c>
+      <c r="F113" s="7">
+        <v>45427</v>
+      </c>
+      <c r="G113" s="9">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>2</v>
+      </c>
+      <c r="B114" t="s">
+        <v>103</v>
+      </c>
+      <c r="C114" t="s">
+        <v>26</v>
+      </c>
+      <c r="D114">
+        <v>11</v>
+      </c>
+      <c r="E114" t="s">
+        <v>37</v>
+      </c>
+      <c r="F114" s="7">
+        <v>45428</v>
+      </c>
+      <c r="G114" s="9">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>2</v>
+      </c>
+      <c r="B115" t="s">
+        <v>103</v>
+      </c>
+      <c r="C115" t="s">
+        <v>20</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115" t="s">
+        <v>17</v>
+      </c>
+      <c r="F115" s="7">
+        <v>45429</v>
+      </c>
+      <c r="G115" s="9">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>2</v>
+      </c>
+      <c r="B116" t="s">
+        <v>103</v>
+      </c>
+      <c r="C116" t="s">
+        <v>20</v>
+      </c>
+      <c r="D116">
+        <v>2</v>
+      </c>
+      <c r="E116" t="s">
+        <v>36</v>
+      </c>
+      <c r="F116" s="7">
+        <v>45430</v>
+      </c>
+      <c r="G116" s="9">
+        <v>0.79166666666666663</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>2</v>
+      </c>
+      <c r="B117" t="s">
+        <v>103</v>
+      </c>
+      <c r="C117" t="s">
+        <v>20</v>
+      </c>
+      <c r="D117">
+        <v>3</v>
+      </c>
+      <c r="E117" t="s">
+        <v>26</v>
+      </c>
+      <c r="F117" s="7">
+        <v>45431</v>
+      </c>
+      <c r="G117" s="9">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>2</v>
+      </c>
+      <c r="B118" t="s">
+        <v>103</v>
+      </c>
+      <c r="C118" t="s">
+        <v>20</v>
+      </c>
+      <c r="D118">
+        <v>4</v>
+      </c>
+      <c r="E118" t="s">
+        <v>30</v>
+      </c>
+      <c r="F118" s="7">
+        <v>45433</v>
+      </c>
+      <c r="G118" s="9">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>2</v>
+      </c>
+      <c r="B119" t="s">
+        <v>103</v>
+      </c>
+      <c r="C119" t="s">
+        <v>20</v>
+      </c>
+      <c r="D119">
+        <v>5</v>
+      </c>
+      <c r="E119" t="s">
+        <v>33</v>
+      </c>
+      <c r="F119" s="7">
+        <v>45434</v>
+      </c>
+      <c r="G119" s="9">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>2</v>
+      </c>
+      <c r="B120" t="s">
+        <v>103</v>
+      </c>
+      <c r="C120" t="s">
+        <v>23</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120" t="s">
+        <v>17</v>
+      </c>
+      <c r="F120" s="7">
+        <v>45425</v>
+      </c>
+      <c r="G120" s="9">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>2</v>
+      </c>
+      <c r="B121" t="s">
+        <v>103</v>
+      </c>
+      <c r="C121" t="s">
+        <v>23</v>
+      </c>
+      <c r="D121">
+        <v>2</v>
+      </c>
+      <c r="E121" t="s">
+        <v>17</v>
+      </c>
+      <c r="F121" s="7">
+        <v>45426</v>
+      </c>
+      <c r="G121" s="9">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>2</v>
+      </c>
+      <c r="B122" t="s">
+        <v>103</v>
+      </c>
+      <c r="C122" t="s">
+        <v>23</v>
+      </c>
+      <c r="D122">
+        <v>3</v>
+      </c>
+      <c r="E122" t="s">
+        <v>30</v>
+      </c>
+      <c r="F122" s="7">
+        <v>45427</v>
+      </c>
+      <c r="G122" s="9">
+        <v>0.79166666666666663</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>2</v>
+      </c>
+      <c r="B123" t="s">
+        <v>103</v>
+      </c>
+      <c r="C123" t="s">
+        <v>23</v>
+      </c>
+      <c r="D123">
+        <v>4</v>
+      </c>
+      <c r="E123" t="s">
+        <v>23</v>
+      </c>
+      <c r="F123" s="7">
+        <v>45428</v>
+      </c>
+      <c r="G123" s="9">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>2</v>
+      </c>
+      <c r="B124" t="s">
+        <v>103</v>
+      </c>
+      <c r="C124" t="s">
+        <v>23</v>
+      </c>
+      <c r="D124">
+        <v>5</v>
+      </c>
+      <c r="E124" t="s">
+        <v>20</v>
+      </c>
+      <c r="F124" s="7">
+        <v>45429</v>
+      </c>
+      <c r="G124" s="9">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>2</v>
+      </c>
+      <c r="B125" t="s">
+        <v>103</v>
+      </c>
+      <c r="C125" t="s">
+        <v>23</v>
+      </c>
+      <c r="D125">
+        <v>6</v>
+      </c>
+      <c r="E125" t="s">
+        <v>20</v>
+      </c>
+      <c r="F125" s="7">
+        <v>45430</v>
+      </c>
+      <c r="G125" s="9">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>2</v>
+      </c>
+      <c r="B126" t="s">
+        <v>103</v>
+      </c>
+      <c r="C126" t="s">
+        <v>23</v>
+      </c>
+      <c r="D126">
+        <v>7</v>
+      </c>
+      <c r="E126" t="s">
+        <v>23</v>
+      </c>
+      <c r="F126" s="7">
+        <v>45431</v>
+      </c>
+      <c r="G126" s="9">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>2</v>
+      </c>
+      <c r="B127" t="s">
+        <v>103</v>
+      </c>
+      <c r="C127" t="s">
+        <v>23</v>
+      </c>
+      <c r="D127">
+        <v>8</v>
+      </c>
+      <c r="E127" t="s">
+        <v>26</v>
+      </c>
+      <c r="F127" s="7">
+        <v>45432</v>
+      </c>
+      <c r="G127" s="9">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>2</v>
+      </c>
+      <c r="B128" t="s">
+        <v>103</v>
+      </c>
+      <c r="C128" t="s">
+        <v>23</v>
+      </c>
+      <c r="D128">
+        <v>9</v>
+      </c>
+      <c r="E128" t="s">
+        <v>34</v>
+      </c>
+      <c r="F128" s="7">
+        <v>45433</v>
+      </c>
+      <c r="G128" s="9">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>2</v>
+      </c>
+      <c r="B129" t="s">
+        <v>103</v>
+      </c>
+      <c r="C129" t="s">
+        <v>23</v>
+      </c>
+      <c r="D129">
+        <v>10</v>
+      </c>
+      <c r="E129" t="s">
+        <v>23</v>
+      </c>
+      <c r="F129" s="7">
+        <v>45434</v>
+      </c>
+      <c r="G129" s="9">
+        <v>0.79166666666666663</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>2</v>
+      </c>
+      <c r="B130" t="s">
+        <v>103</v>
+      </c>
+      <c r="C130" t="s">
+        <v>23</v>
+      </c>
+      <c r="D130">
+        <v>11</v>
+      </c>
+      <c r="E130" t="s">
+        <v>20</v>
+      </c>
+      <c r="F130" s="7">
+        <v>45435</v>
+      </c>
+      <c r="G130" s="9">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>2</v>
+      </c>
+      <c r="B131" t="s">
+        <v>103</v>
+      </c>
+      <c r="C131" t="s">
+        <v>14</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="E131" t="s">
+        <v>34</v>
+      </c>
+      <c r="F131" s="7">
+        <v>45436</v>
+      </c>
+      <c r="G131" s="9">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>2</v>
+      </c>
+      <c r="B132" t="s">
+        <v>103</v>
+      </c>
+      <c r="C132" t="s">
+        <v>14</v>
+      </c>
+      <c r="D132">
+        <v>2</v>
+      </c>
+      <c r="E132" t="s">
+        <v>20</v>
+      </c>
+      <c r="F132" s="7">
+        <v>45437</v>
+      </c>
+      <c r="G132" s="9">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>2</v>
+      </c>
+      <c r="B133" t="s">
+        <v>103</v>
+      </c>
+      <c r="C133" t="s">
+        <v>14</v>
+      </c>
+      <c r="D133">
+        <v>3</v>
+      </c>
+      <c r="E133" t="s">
+        <v>34</v>
+      </c>
+      <c r="F133" s="7">
+        <v>45438</v>
+      </c>
+      <c r="G133" s="9">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>2</v>
+      </c>
+      <c r="B134" t="s">
+        <v>103</v>
+      </c>
+      <c r="C134" t="s">
+        <v>30</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+      <c r="E134" t="s">
+        <v>34</v>
+      </c>
+      <c r="F134" s="7">
+        <v>45435</v>
+      </c>
+      <c r="G134" s="9">
+        <v>0.79166666666666663</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>2</v>
+      </c>
+      <c r="B135" t="s">
+        <v>103</v>
+      </c>
+      <c r="C135" t="s">
+        <v>30</v>
+      </c>
+      <c r="D135">
+        <v>2</v>
+      </c>
+      <c r="E135" t="s">
+        <v>30</v>
+      </c>
+      <c r="F135" s="7">
+        <v>45436</v>
+      </c>
+      <c r="G135" s="9">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>2</v>
+      </c>
+      <c r="B136" t="s">
+        <v>103</v>
+      </c>
+      <c r="C136" t="s">
+        <v>30</v>
+      </c>
+      <c r="D136">
+        <v>3</v>
+      </c>
+      <c r="E136" t="s">
+        <v>33</v>
+      </c>
+      <c r="F136" s="7">
+        <v>45437</v>
+      </c>
+      <c r="G136" s="9">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>2</v>
+      </c>
+      <c r="B137" t="s">
+        <v>103</v>
+      </c>
+      <c r="C137" t="s">
+        <v>30</v>
+      </c>
+      <c r="D137">
+        <v>4</v>
+      </c>
+      <c r="E137" t="s">
+        <v>26</v>
+      </c>
+      <c r="F137" s="7">
+        <v>45438</v>
+      </c>
+      <c r="G137" s="9">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>2</v>
+      </c>
+      <c r="B138" t="s">
+        <v>103</v>
+      </c>
+      <c r="C138" t="s">
+        <v>17</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138" t="s">
+        <v>34</v>
+      </c>
+      <c r="F138" s="7">
+        <v>45439</v>
+      </c>
+      <c r="G138" s="9">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>2</v>
+      </c>
+      <c r="B139" t="s">
+        <v>103</v>
+      </c>
+      <c r="C139" t="s">
+        <v>17</v>
+      </c>
+      <c r="D139">
+        <v>2</v>
+      </c>
+      <c r="E139" t="s">
+        <v>23</v>
+      </c>
+      <c r="F139" s="7">
+        <v>45440</v>
+      </c>
+      <c r="G139" s="9">
+        <v>0.79166666666666663</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>2</v>
+      </c>
+      <c r="B140" t="s">
+        <v>103</v>
+      </c>
+      <c r="C140" t="s">
+        <v>17</v>
+      </c>
+      <c r="D140">
+        <v>3</v>
+      </c>
+      <c r="E140" t="s">
+        <v>34</v>
+      </c>
+      <c r="F140" s="7">
+        <v>45441</v>
+      </c>
+      <c r="G140" s="9">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>2</v>
+      </c>
+      <c r="B141" t="s">
+        <v>103</v>
+      </c>
+      <c r="C141" t="s">
+        <v>17</v>
+      </c>
+      <c r="D141">
+        <v>4</v>
+      </c>
+      <c r="E141" t="s">
+        <v>23</v>
+      </c>
+      <c r="F141" s="7">
+        <v>45442</v>
+      </c>
+      <c r="G141" s="9">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>2</v>
+      </c>
+      <c r="B142" t="s">
+        <v>103</v>
+      </c>
+      <c r="C142" t="s">
+        <v>17</v>
+      </c>
+      <c r="D142">
+        <v>5</v>
+      </c>
+      <c r="E142" t="s">
+        <v>34</v>
+      </c>
+      <c r="F142" s="7">
+        <v>45443</v>
+      </c>
+      <c r="G142" s="9">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>2</v>
+      </c>
+      <c r="B143" t="s">
+        <v>103</v>
+      </c>
+      <c r="C143" t="s">
+        <v>17</v>
+      </c>
+      <c r="D143">
+        <v>6</v>
+      </c>
+      <c r="E143" t="s">
+        <v>14</v>
+      </c>
+      <c r="F143" s="7">
+        <v>45444</v>
+      </c>
+      <c r="G143" s="9">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G96">
+    <sortCondition ref="A2:A96"/>
+    <sortCondition ref="B2:B96"/>
+    <sortCondition ref="C2:C96"/>
+    <sortCondition ref="D2:D96"/>
+    <sortCondition ref="F2:F96"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
